--- a/procesamiento de etiquetas/Etiquetado a demanda/Datos generados/Situaciones_total.xlsx
+++ b/procesamiento de etiquetas/Etiquetado a demanda/Datos generados/Situaciones_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1585" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="41">
   <si>
     <t>Evento</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Newells</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Central Cordoba</t>
   </si>
 </sst>
 </file>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7726,6 +7732,2086 @@
         <v>38</v>
       </c>
     </row>
+    <row r="227" spans="1:10">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>13</v>
+      </c>
+      <c r="C227">
+        <v>3</v>
+      </c>
+      <c r="D227">
+        <v>6</v>
+      </c>
+      <c r="E227" t="s">
+        <v>16</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227" t="s">
+        <v>23</v>
+      </c>
+      <c r="H227" t="s">
+        <v>24</v>
+      </c>
+      <c r="I227" t="s">
+        <v>33</v>
+      </c>
+      <c r="J227" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228">
+        <v>2.2</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228" t="s">
+        <v>19</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228" t="s">
+        <v>32</v>
+      </c>
+      <c r="H228" t="s">
+        <v>23</v>
+      </c>
+      <c r="I228" t="s">
+        <v>33</v>
+      </c>
+      <c r="J228" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C229">
+        <v>9</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229" t="s">
+        <v>16</v>
+      </c>
+      <c r="F229">
+        <v>2</v>
+      </c>
+      <c r="G229" t="s">
+        <v>29</v>
+      </c>
+      <c r="H229" t="s">
+        <v>29</v>
+      </c>
+      <c r="I229" t="s">
+        <v>33</v>
+      </c>
+      <c r="J229" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D230">
+        <v>9</v>
+      </c>
+      <c r="E230" t="s">
+        <v>16</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+      <c r="G230" t="s">
+        <v>27</v>
+      </c>
+      <c r="H230" t="s">
+        <v>29</v>
+      </c>
+      <c r="I230" t="s">
+        <v>33</v>
+      </c>
+      <c r="J230" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D231">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E231" t="s">
+        <v>21</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+      <c r="G231" t="s">
+        <v>27</v>
+      </c>
+      <c r="H231" t="s">
+        <v>27</v>
+      </c>
+      <c r="I231" t="s">
+        <v>33</v>
+      </c>
+      <c r="J231" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
+      <c r="A232" t="s">
+        <v>10</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232">
+        <v>2.2</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>20</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232" t="s">
+        <v>32</v>
+      </c>
+      <c r="H232" t="s">
+        <v>31</v>
+      </c>
+      <c r="I232" t="s">
+        <v>33</v>
+      </c>
+      <c r="J232" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
+      <c r="A233" t="s">
+        <v>10</v>
+      </c>
+      <c r="B233" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233">
+        <v>2.1</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233">
+        <v>4</v>
+      </c>
+      <c r="G233" t="s">
+        <v>25</v>
+      </c>
+      <c r="H233" t="s">
+        <v>31</v>
+      </c>
+      <c r="I233" t="s">
+        <v>33</v>
+      </c>
+      <c r="J233" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
+      <c r="A234" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+      <c r="C234">
+        <v>2.2</v>
+      </c>
+      <c r="D234">
+        <v>2.1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>20</v>
+      </c>
+      <c r="F234">
+        <v>4</v>
+      </c>
+      <c r="G234" t="s">
+        <v>32</v>
+      </c>
+      <c r="H234" t="s">
+        <v>25</v>
+      </c>
+      <c r="I234" t="s">
+        <v>33</v>
+      </c>
+      <c r="J234" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235">
+        <v>5</v>
+      </c>
+      <c r="D235">
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>16</v>
+      </c>
+      <c r="F235">
+        <v>5</v>
+      </c>
+      <c r="G235" t="s">
+        <v>28</v>
+      </c>
+      <c r="H235" t="s">
+        <v>24</v>
+      </c>
+      <c r="I235" t="s">
+        <v>33</v>
+      </c>
+      <c r="J235" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236">
+        <v>8.1</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236" t="s">
+        <v>16</v>
+      </c>
+      <c r="F236">
+        <v>5</v>
+      </c>
+      <c r="G236" t="s">
+        <v>26</v>
+      </c>
+      <c r="H236" t="s">
+        <v>28</v>
+      </c>
+      <c r="I236" t="s">
+        <v>33</v>
+      </c>
+      <c r="J236" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D237">
+        <v>8.1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>19</v>
+      </c>
+      <c r="F237">
+        <v>5</v>
+      </c>
+      <c r="G237" t="s">
+        <v>27</v>
+      </c>
+      <c r="H237" t="s">
+        <v>26</v>
+      </c>
+      <c r="I237" t="s">
+        <v>33</v>
+      </c>
+      <c r="J237" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238">
+        <v>5</v>
+      </c>
+      <c r="D238">
+        <v>6</v>
+      </c>
+      <c r="E238" t="s">
+        <v>16</v>
+      </c>
+      <c r="F238">
+        <v>6</v>
+      </c>
+      <c r="G238" t="s">
+        <v>28</v>
+      </c>
+      <c r="H238" t="s">
+        <v>24</v>
+      </c>
+      <c r="I238" t="s">
+        <v>33</v>
+      </c>
+      <c r="J238" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239">
+        <v>4</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239" t="s">
+        <v>16</v>
+      </c>
+      <c r="F239">
+        <v>6</v>
+      </c>
+      <c r="G239" t="s">
+        <v>22</v>
+      </c>
+      <c r="H239" t="s">
+        <v>28</v>
+      </c>
+      <c r="I239" t="s">
+        <v>33</v>
+      </c>
+      <c r="J239" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
+      <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240">
+        <v>7</v>
+      </c>
+      <c r="D240">
+        <v>4</v>
+      </c>
+      <c r="E240" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240">
+        <v>6</v>
+      </c>
+      <c r="G240" t="s">
+        <v>30</v>
+      </c>
+      <c r="H240" t="s">
+        <v>22</v>
+      </c>
+      <c r="I240" t="s">
+        <v>33</v>
+      </c>
+      <c r="J240" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+      <c r="D241">
+        <v>7</v>
+      </c>
+      <c r="E241" t="s">
+        <v>16</v>
+      </c>
+      <c r="F241">
+        <v>6</v>
+      </c>
+      <c r="G241" t="s">
+        <v>28</v>
+      </c>
+      <c r="H241" t="s">
+        <v>30</v>
+      </c>
+      <c r="I241" t="s">
+        <v>33</v>
+      </c>
+      <c r="J241" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D242">
+        <v>5</v>
+      </c>
+      <c r="E242" t="s">
+        <v>16</v>
+      </c>
+      <c r="F242">
+        <v>6</v>
+      </c>
+      <c r="G242" t="s">
+        <v>27</v>
+      </c>
+      <c r="H242" t="s">
+        <v>28</v>
+      </c>
+      <c r="I242" t="s">
+        <v>33</v>
+      </c>
+      <c r="J242" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243">
+        <v>9</v>
+      </c>
+      <c r="D243">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E243" t="s">
+        <v>16</v>
+      </c>
+      <c r="F243">
+        <v>6</v>
+      </c>
+      <c r="G243" t="s">
+        <v>29</v>
+      </c>
+      <c r="H243" t="s">
+        <v>27</v>
+      </c>
+      <c r="I243" t="s">
+        <v>33</v>
+      </c>
+      <c r="J243" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D244">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244">
+        <v>6</v>
+      </c>
+      <c r="G244" t="s">
+        <v>27</v>
+      </c>
+      <c r="H244" t="s">
+        <v>29</v>
+      </c>
+      <c r="I244" t="s">
+        <v>33</v>
+      </c>
+      <c r="J244" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D245">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>16</v>
+      </c>
+      <c r="F245">
+        <v>7</v>
+      </c>
+      <c r="G245" t="s">
+        <v>27</v>
+      </c>
+      <c r="H245" t="s">
+        <v>29</v>
+      </c>
+      <c r="I245" t="s">
+        <v>33</v>
+      </c>
+      <c r="J245" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+      <c r="C246">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D246">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E246" t="s">
+        <v>21</v>
+      </c>
+      <c r="F246">
+        <v>7</v>
+      </c>
+      <c r="G246" t="s">
+        <v>27</v>
+      </c>
+      <c r="H246" t="s">
+        <v>27</v>
+      </c>
+      <c r="I246" t="s">
+        <v>33</v>
+      </c>
+      <c r="J246" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>15</v>
+      </c>
+      <c r="C247">
+        <v>8.1</v>
+      </c>
+      <c r="D247">
+        <v>4</v>
+      </c>
+      <c r="E247" t="s">
+        <v>16</v>
+      </c>
+      <c r="F247">
+        <v>8</v>
+      </c>
+      <c r="G247" t="s">
+        <v>26</v>
+      </c>
+      <c r="H247" t="s">
+        <v>22</v>
+      </c>
+      <c r="I247" t="s">
+        <v>33</v>
+      </c>
+      <c r="J247" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+      <c r="C248">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D248">
+        <v>8.1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>16</v>
+      </c>
+      <c r="F248">
+        <v>8</v>
+      </c>
+      <c r="G248" t="s">
+        <v>27</v>
+      </c>
+      <c r="H248" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" t="s">
+        <v>33</v>
+      </c>
+      <c r="J248" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>15</v>
+      </c>
+      <c r="C249">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D249">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E249" t="s">
+        <v>18</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+      <c r="G249" t="s">
+        <v>27</v>
+      </c>
+      <c r="H249" t="s">
+        <v>27</v>
+      </c>
+      <c r="I249" t="s">
+        <v>33</v>
+      </c>
+      <c r="J249" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+      <c r="E250" t="s">
+        <v>16</v>
+      </c>
+      <c r="F250">
+        <v>9</v>
+      </c>
+      <c r="G250" t="s">
+        <v>23</v>
+      </c>
+      <c r="H250" t="s">
+        <v>24</v>
+      </c>
+      <c r="I250" t="s">
+        <v>33</v>
+      </c>
+      <c r="J250" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251" t="s">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251">
+        <v>2.1</v>
+      </c>
+      <c r="D251">
+        <v>3</v>
+      </c>
+      <c r="E251" t="s">
+        <v>16</v>
+      </c>
+      <c r="F251">
+        <v>9</v>
+      </c>
+      <c r="G251" t="s">
+        <v>25</v>
+      </c>
+      <c r="H251" t="s">
+        <v>23</v>
+      </c>
+      <c r="I251" t="s">
+        <v>33</v>
+      </c>
+      <c r="J251" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
+      <c r="A252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252">
+        <v>2.2</v>
+      </c>
+      <c r="D252">
+        <v>2.1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>20</v>
+      </c>
+      <c r="F252">
+        <v>9</v>
+      </c>
+      <c r="G252" t="s">
+        <v>32</v>
+      </c>
+      <c r="H252" t="s">
+        <v>25</v>
+      </c>
+      <c r="I252" t="s">
+        <v>33</v>
+      </c>
+      <c r="J252" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" t="s">
+        <v>15</v>
+      </c>
+      <c r="C253">
+        <v>8.1</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253" t="s">
+        <v>16</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253" t="s">
+        <v>26</v>
+      </c>
+      <c r="H253" t="s">
+        <v>28</v>
+      </c>
+      <c r="I253" t="s">
+        <v>33</v>
+      </c>
+      <c r="J253" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>15</v>
+      </c>
+      <c r="C254">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D254">
+        <v>8.1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>19</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254" t="s">
+        <v>27</v>
+      </c>
+      <c r="H254" t="s">
+        <v>26</v>
+      </c>
+      <c r="I254" t="s">
+        <v>33</v>
+      </c>
+      <c r="J254" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>13</v>
+      </c>
+      <c r="C255">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D255">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+      <c r="G255" t="s">
+        <v>27</v>
+      </c>
+      <c r="H255" t="s">
+        <v>29</v>
+      </c>
+      <c r="I255" t="s">
+        <v>33</v>
+      </c>
+      <c r="J255" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
+      <c r="A256" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E256" t="s">
+        <v>16</v>
+      </c>
+      <c r="F256">
+        <v>3</v>
+      </c>
+      <c r="G256" t="s">
+        <v>22</v>
+      </c>
+      <c r="H256" t="s">
+        <v>27</v>
+      </c>
+      <c r="I256" t="s">
+        <v>33</v>
+      </c>
+      <c r="J256" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" t="s">
+        <v>10</v>
+      </c>
+      <c r="B257" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+      <c r="E257" t="s">
+        <v>16</v>
+      </c>
+      <c r="F257">
+        <v>3</v>
+      </c>
+      <c r="G257" t="s">
+        <v>31</v>
+      </c>
+      <c r="H257" t="s">
+        <v>22</v>
+      </c>
+      <c r="I257" t="s">
+        <v>33</v>
+      </c>
+      <c r="J257" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" t="s">
+        <v>14</v>
+      </c>
+      <c r="C258">
+        <v>2.2</v>
+      </c>
+      <c r="D258">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>16</v>
+      </c>
+      <c r="F258">
+        <v>3</v>
+      </c>
+      <c r="G258" t="s">
+        <v>32</v>
+      </c>
+      <c r="H258" t="s">
+        <v>31</v>
+      </c>
+      <c r="I258" t="s">
+        <v>33</v>
+      </c>
+      <c r="J258" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259" t="s">
+        <v>10</v>
+      </c>
+      <c r="B259" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259">
+        <v>2.2</v>
+      </c>
+      <c r="D259">
+        <v>2.2</v>
+      </c>
+      <c r="E259" t="s">
+        <v>17</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259" t="s">
+        <v>32</v>
+      </c>
+      <c r="H259" t="s">
+        <v>32</v>
+      </c>
+      <c r="I259" t="s">
+        <v>33</v>
+      </c>
+      <c r="J259" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260">
+        <v>8.1</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260" t="s">
+        <v>16</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="G260" t="s">
+        <v>26</v>
+      </c>
+      <c r="H260" t="s">
+        <v>28</v>
+      </c>
+      <c r="I260" t="s">
+        <v>33</v>
+      </c>
+      <c r="J260" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261">
+        <v>4</v>
+      </c>
+      <c r="D261">
+        <v>8.1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="G261" t="s">
+        <v>22</v>
+      </c>
+      <c r="H261" t="s">
+        <v>26</v>
+      </c>
+      <c r="I261" t="s">
+        <v>33</v>
+      </c>
+      <c r="J261" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262">
+        <v>7</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
+      </c>
+      <c r="E262" t="s">
+        <v>16</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262" t="s">
+        <v>30</v>
+      </c>
+      <c r="H262" t="s">
+        <v>22</v>
+      </c>
+      <c r="I262" t="s">
+        <v>33</v>
+      </c>
+      <c r="J262" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263">
+        <v>8.1</v>
+      </c>
+      <c r="D263">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>16</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
+      </c>
+      <c r="G263" t="s">
+        <v>26</v>
+      </c>
+      <c r="H263" t="s">
+        <v>30</v>
+      </c>
+      <c r="I263" t="s">
+        <v>33</v>
+      </c>
+      <c r="J263" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
+      <c r="A264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>8.1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>16</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="G264" t="s">
+        <v>28</v>
+      </c>
+      <c r="H264" t="s">
+        <v>26</v>
+      </c>
+      <c r="I264" t="s">
+        <v>33</v>
+      </c>
+      <c r="J264" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D265">
+        <v>5</v>
+      </c>
+      <c r="E265" t="s">
+        <v>20</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265" t="s">
+        <v>27</v>
+      </c>
+      <c r="H265" t="s">
+        <v>28</v>
+      </c>
+      <c r="I265" t="s">
+        <v>33</v>
+      </c>
+      <c r="J265" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266">
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <v>6</v>
+      </c>
+      <c r="E266" t="s">
+        <v>16</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+      <c r="G266" t="s">
+        <v>29</v>
+      </c>
+      <c r="H266" t="s">
+        <v>24</v>
+      </c>
+      <c r="I266" t="s">
+        <v>33</v>
+      </c>
+      <c r="J266" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>15</v>
+      </c>
+      <c r="C267">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D267">
+        <v>9</v>
+      </c>
+      <c r="E267" t="s">
+        <v>19</v>
+      </c>
+      <c r="F267">
+        <v>5</v>
+      </c>
+      <c r="G267" t="s">
+        <v>27</v>
+      </c>
+      <c r="H267" t="s">
+        <v>29</v>
+      </c>
+      <c r="I267" t="s">
+        <v>33</v>
+      </c>
+      <c r="J267" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D268">
+        <v>8.1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>20</v>
+      </c>
+      <c r="F268">
+        <v>6</v>
+      </c>
+      <c r="G268" t="s">
+        <v>27</v>
+      </c>
+      <c r="H268" t="s">
+        <v>26</v>
+      </c>
+      <c r="I268" t="s">
+        <v>33</v>
+      </c>
+      <c r="J268" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D269">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E269" t="s">
+        <v>17</v>
+      </c>
+      <c r="F269">
+        <v>6</v>
+      </c>
+      <c r="G269" t="s">
+        <v>27</v>
+      </c>
+      <c r="H269" t="s">
+        <v>27</v>
+      </c>
+      <c r="I269" t="s">
+        <v>33</v>
+      </c>
+      <c r="J269" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
+      <c r="A270" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270">
+        <v>4</v>
+      </c>
+      <c r="D270">
+        <v>8.1</v>
+      </c>
+      <c r="E270" t="s">
+        <v>16</v>
+      </c>
+      <c r="F270">
+        <v>7</v>
+      </c>
+      <c r="G270" t="s">
+        <v>22</v>
+      </c>
+      <c r="H270" t="s">
+        <v>26</v>
+      </c>
+      <c r="I270" t="s">
+        <v>33</v>
+      </c>
+      <c r="J270" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
+      <c r="A271" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
+        <v>14</v>
+      </c>
+      <c r="C271">
+        <v>2.1</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271" t="s">
+        <v>16</v>
+      </c>
+      <c r="F271">
+        <v>7</v>
+      </c>
+      <c r="G271" t="s">
+        <v>25</v>
+      </c>
+      <c r="H271" t="s">
+        <v>22</v>
+      </c>
+      <c r="I271" t="s">
+        <v>33</v>
+      </c>
+      <c r="J271" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
+      <c r="A272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272">
+        <v>2.2</v>
+      </c>
+      <c r="D272">
+        <v>2.1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>16</v>
+      </c>
+      <c r="F272">
+        <v>7</v>
+      </c>
+      <c r="G272" t="s">
+        <v>32</v>
+      </c>
+      <c r="H272" t="s">
+        <v>25</v>
+      </c>
+      <c r="I272" t="s">
+        <v>33</v>
+      </c>
+      <c r="J272" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273">
+        <v>2.2</v>
+      </c>
+      <c r="D273">
+        <v>2.2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>20</v>
+      </c>
+      <c r="F273">
+        <v>7</v>
+      </c>
+      <c r="G273" t="s">
+        <v>32</v>
+      </c>
+      <c r="H273" t="s">
+        <v>32</v>
+      </c>
+      <c r="I273" t="s">
+        <v>33</v>
+      </c>
+      <c r="J273" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274">
+        <v>4</v>
+      </c>
+      <c r="D274">
+        <v>5</v>
+      </c>
+      <c r="E274" t="s">
+        <v>16</v>
+      </c>
+      <c r="F274">
+        <v>8</v>
+      </c>
+      <c r="G274" t="s">
+        <v>22</v>
+      </c>
+      <c r="H274" t="s">
+        <v>28</v>
+      </c>
+      <c r="I274" t="s">
+        <v>33</v>
+      </c>
+      <c r="J274" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>16</v>
+      </c>
+      <c r="F275">
+        <v>8</v>
+      </c>
+      <c r="G275" t="s">
+        <v>30</v>
+      </c>
+      <c r="H275" t="s">
+        <v>22</v>
+      </c>
+      <c r="I275" t="s">
+        <v>33</v>
+      </c>
+      <c r="J275" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" t="s">
+        <v>14</v>
+      </c>
+      <c r="C276">
+        <v>4</v>
+      </c>
+      <c r="D276">
+        <v>7</v>
+      </c>
+      <c r="E276" t="s">
+        <v>16</v>
+      </c>
+      <c r="F276">
+        <v>8</v>
+      </c>
+      <c r="G276" t="s">
+        <v>22</v>
+      </c>
+      <c r="H276" t="s">
+        <v>30</v>
+      </c>
+      <c r="I276" t="s">
+        <v>33</v>
+      </c>
+      <c r="J276" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" t="s">
+        <v>14</v>
+      </c>
+      <c r="C277">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277" t="s">
+        <v>16</v>
+      </c>
+      <c r="F277">
+        <v>8</v>
+      </c>
+      <c r="G277" t="s">
+        <v>27</v>
+      </c>
+      <c r="H277" t="s">
+        <v>22</v>
+      </c>
+      <c r="I277" t="s">
+        <v>33</v>
+      </c>
+      <c r="J277" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
+      <c r="A278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" t="s">
+        <v>14</v>
+      </c>
+      <c r="C278">
+        <v>8.1</v>
+      </c>
+      <c r="D278">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E278" t="s">
+        <v>16</v>
+      </c>
+      <c r="F278">
+        <v>8</v>
+      </c>
+      <c r="G278" t="s">
+        <v>26</v>
+      </c>
+      <c r="H278" t="s">
+        <v>27</v>
+      </c>
+      <c r="I278" t="s">
+        <v>33</v>
+      </c>
+      <c r="J278" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D279">
+        <v>8.1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>19</v>
+      </c>
+      <c r="F279">
+        <v>8</v>
+      </c>
+      <c r="G279" t="s">
+        <v>27</v>
+      </c>
+      <c r="H279" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" t="s">
+        <v>33</v>
+      </c>
+      <c r="J279" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
+      <c r="A280" t="s">
+        <v>10</v>
+      </c>
+      <c r="B280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280">
+        <v>4</v>
+      </c>
+      <c r="D280">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E280" t="s">
+        <v>16</v>
+      </c>
+      <c r="F280">
+        <v>9</v>
+      </c>
+      <c r="G280" t="s">
+        <v>22</v>
+      </c>
+      <c r="H280" t="s">
+        <v>27</v>
+      </c>
+      <c r="I280" t="s">
+        <v>33</v>
+      </c>
+      <c r="J280" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C281">
+        <v>2.1</v>
+      </c>
+      <c r="D281">
+        <v>4</v>
+      </c>
+      <c r="E281" t="s">
+        <v>16</v>
+      </c>
+      <c r="F281">
+        <v>9</v>
+      </c>
+      <c r="G281" t="s">
+        <v>25</v>
+      </c>
+      <c r="H281" t="s">
+        <v>22</v>
+      </c>
+      <c r="I281" t="s">
+        <v>33</v>
+      </c>
+      <c r="J281" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282">
+        <v>2.2</v>
+      </c>
+      <c r="D282">
+        <v>2.1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>20</v>
+      </c>
+      <c r="F282">
+        <v>9</v>
+      </c>
+      <c r="G282" t="s">
+        <v>32</v>
+      </c>
+      <c r="H282" t="s">
+        <v>25</v>
+      </c>
+      <c r="I282" t="s">
+        <v>33</v>
+      </c>
+      <c r="J282" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
+      <c r="A283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283">
+        <v>8.1</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>16</v>
+      </c>
+      <c r="F283">
+        <v>10</v>
+      </c>
+      <c r="G283" t="s">
+        <v>26</v>
+      </c>
+      <c r="H283" t="s">
+        <v>28</v>
+      </c>
+      <c r="I283" t="s">
+        <v>33</v>
+      </c>
+      <c r="J283" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D284">
+        <v>8.1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>16</v>
+      </c>
+      <c r="F284">
+        <v>10</v>
+      </c>
+      <c r="G284" t="s">
+        <v>27</v>
+      </c>
+      <c r="H284" t="s">
+        <v>26</v>
+      </c>
+      <c r="I284" t="s">
+        <v>33</v>
+      </c>
+      <c r="J284" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>14</v>
+      </c>
+      <c r="C285">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D285">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E285" t="s">
+        <v>19</v>
+      </c>
+      <c r="F285">
+        <v>10</v>
+      </c>
+      <c r="G285" t="s">
+        <v>27</v>
+      </c>
+      <c r="H285" t="s">
+        <v>27</v>
+      </c>
+      <c r="I285" t="s">
+        <v>33</v>
+      </c>
+      <c r="J285" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
+        <v>14</v>
+      </c>
+      <c r="C286">
+        <v>2.1</v>
+      </c>
+      <c r="D286">
+        <v>5</v>
+      </c>
+      <c r="E286" t="s">
+        <v>16</v>
+      </c>
+      <c r="F286">
+        <v>11</v>
+      </c>
+      <c r="G286" t="s">
+        <v>25</v>
+      </c>
+      <c r="H286" t="s">
+        <v>28</v>
+      </c>
+      <c r="I286" t="s">
+        <v>33</v>
+      </c>
+      <c r="J286" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
+      <c r="A287" t="s">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287">
+        <v>2.2</v>
+      </c>
+      <c r="D287">
+        <v>2.1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>16</v>
+      </c>
+      <c r="F287">
+        <v>11</v>
+      </c>
+      <c r="G287" t="s">
+        <v>32</v>
+      </c>
+      <c r="H287" t="s">
+        <v>25</v>
+      </c>
+      <c r="I287" t="s">
+        <v>33</v>
+      </c>
+      <c r="J287" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
+      <c r="A288" t="s">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288">
+        <v>2.2</v>
+      </c>
+      <c r="D288">
+        <v>2.2</v>
+      </c>
+      <c r="E288" t="s">
+        <v>17</v>
+      </c>
+      <c r="F288">
+        <v>11</v>
+      </c>
+      <c r="G288" t="s">
+        <v>32</v>
+      </c>
+      <c r="H288" t="s">
+        <v>32</v>
+      </c>
+      <c r="I288" t="s">
+        <v>33</v>
+      </c>
+      <c r="J288" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" t="s">
+        <v>12</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289">
+        <v>5</v>
+      </c>
+      <c r="E289" t="s">
+        <v>16</v>
+      </c>
+      <c r="F289">
+        <v>12</v>
+      </c>
+      <c r="G289" t="s">
+        <v>22</v>
+      </c>
+      <c r="H289" t="s">
+        <v>28</v>
+      </c>
+      <c r="I289" t="s">
+        <v>33</v>
+      </c>
+      <c r="J289" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>12</v>
+      </c>
+      <c r="C290">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D290">
+        <v>4</v>
+      </c>
+      <c r="E290" t="s">
+        <v>16</v>
+      </c>
+      <c r="F290">
+        <v>12</v>
+      </c>
+      <c r="G290" t="s">
+        <v>27</v>
+      </c>
+      <c r="H290" t="s">
+        <v>22</v>
+      </c>
+      <c r="I290" t="s">
+        <v>33</v>
+      </c>
+      <c r="J290" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D291">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E291" t="s">
+        <v>20</v>
+      </c>
+      <c r="F291">
+        <v>12</v>
+      </c>
+      <c r="G291" t="s">
+        <v>27</v>
+      </c>
+      <c r="H291" t="s">
+        <v>27</v>
+      </c>
+      <c r="I291" t="s">
+        <v>33</v>
+      </c>
+      <c r="J291" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/procesamiento de etiquetas/Etiquetado a demanda/Datos generados/Situaciones_total.xlsx
+++ b/procesamiento de etiquetas/Etiquetado a demanda/Datos generados/Situaciones_total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="43">
   <si>
     <t>Evento</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Central Cordoba</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>Barracas</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J291"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9812,6 +9818,1990 @@
         <v>40</v>
       </c>
     </row>
+    <row r="292" spans="1:10">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292">
+        <v>4</v>
+      </c>
+      <c r="E292" t="s">
+        <v>16</v>
+      </c>
+      <c r="F292">
+        <v>1</v>
+      </c>
+      <c r="G292" t="s">
+        <v>31</v>
+      </c>
+      <c r="H292" t="s">
+        <v>22</v>
+      </c>
+      <c r="I292" t="s">
+        <v>33</v>
+      </c>
+      <c r="J292" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
+      <c r="A293" t="s">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293">
+        <v>2.2</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>16</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293" t="s">
+        <v>32</v>
+      </c>
+      <c r="H293" t="s">
+        <v>31</v>
+      </c>
+      <c r="I293" t="s">
+        <v>33</v>
+      </c>
+      <c r="J293" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
+      <c r="A294" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294">
+        <v>2.2</v>
+      </c>
+      <c r="D294">
+        <v>2.2</v>
+      </c>
+      <c r="E294" t="s">
+        <v>20</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294" t="s">
+        <v>32</v>
+      </c>
+      <c r="H294" t="s">
+        <v>32</v>
+      </c>
+      <c r="I294" t="s">
+        <v>33</v>
+      </c>
+      <c r="J294" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295">
+        <v>4</v>
+      </c>
+      <c r="D295">
+        <v>8.1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>16</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+      <c r="G295" t="s">
+        <v>22</v>
+      </c>
+      <c r="H295" t="s">
+        <v>26</v>
+      </c>
+      <c r="I295" t="s">
+        <v>33</v>
+      </c>
+      <c r="J295" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
+      <c r="A296" t="s">
+        <v>10</v>
+      </c>
+      <c r="B296" t="s">
+        <v>12</v>
+      </c>
+      <c r="C296">
+        <v>2.1</v>
+      </c>
+      <c r="D296">
+        <v>4</v>
+      </c>
+      <c r="E296" t="s">
+        <v>16</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296" t="s">
+        <v>25</v>
+      </c>
+      <c r="H296" t="s">
+        <v>22</v>
+      </c>
+      <c r="I296" t="s">
+        <v>33</v>
+      </c>
+      <c r="J296" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
+      <c r="A297" t="s">
+        <v>10</v>
+      </c>
+      <c r="B297" t="s">
+        <v>12</v>
+      </c>
+      <c r="C297">
+        <v>2.2</v>
+      </c>
+      <c r="D297">
+        <v>2.1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>16</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+      <c r="G297" t="s">
+        <v>32</v>
+      </c>
+      <c r="H297" t="s">
+        <v>25</v>
+      </c>
+      <c r="I297" t="s">
+        <v>33</v>
+      </c>
+      <c r="J297" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
+      <c r="A298" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298">
+        <v>3</v>
+      </c>
+      <c r="D298">
+        <v>2.2</v>
+      </c>
+      <c r="E298" t="s">
+        <v>16</v>
+      </c>
+      <c r="F298">
+        <v>2</v>
+      </c>
+      <c r="G298" t="s">
+        <v>23</v>
+      </c>
+      <c r="H298" t="s">
+        <v>32</v>
+      </c>
+      <c r="I298" t="s">
+        <v>33</v>
+      </c>
+      <c r="J298" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
+      <c r="A299" t="s">
+        <v>10</v>
+      </c>
+      <c r="B299" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299">
+        <v>2.2</v>
+      </c>
+      <c r="D299">
+        <v>3</v>
+      </c>
+      <c r="E299" t="s">
+        <v>16</v>
+      </c>
+      <c r="F299">
+        <v>2</v>
+      </c>
+      <c r="G299" t="s">
+        <v>32</v>
+      </c>
+      <c r="H299" t="s">
+        <v>23</v>
+      </c>
+      <c r="I299" t="s">
+        <v>33</v>
+      </c>
+      <c r="J299" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
+      <c r="A300" t="s">
+        <v>10</v>
+      </c>
+      <c r="B300" t="s">
+        <v>12</v>
+      </c>
+      <c r="C300">
+        <v>2.2</v>
+      </c>
+      <c r="D300">
+        <v>2.2</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300">
+        <v>2</v>
+      </c>
+      <c r="G300" t="s">
+        <v>32</v>
+      </c>
+      <c r="H300" t="s">
+        <v>32</v>
+      </c>
+      <c r="I300" t="s">
+        <v>33</v>
+      </c>
+      <c r="J300" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" t="s">
+        <v>14</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>4</v>
+      </c>
+      <c r="E301" t="s">
+        <v>16</v>
+      </c>
+      <c r="F301">
+        <v>3</v>
+      </c>
+      <c r="G301" t="s">
+        <v>31</v>
+      </c>
+      <c r="H301" t="s">
+        <v>22</v>
+      </c>
+      <c r="I301" t="s">
+        <v>33</v>
+      </c>
+      <c r="J301" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" t="s">
+        <v>14</v>
+      </c>
+      <c r="C302">
+        <v>2.1</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>16</v>
+      </c>
+      <c r="F302">
+        <v>3</v>
+      </c>
+      <c r="G302" t="s">
+        <v>25</v>
+      </c>
+      <c r="H302" t="s">
+        <v>31</v>
+      </c>
+      <c r="I302" t="s">
+        <v>33</v>
+      </c>
+      <c r="J302" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
+      <c r="A303" t="s">
+        <v>10</v>
+      </c>
+      <c r="B303" t="s">
+        <v>14</v>
+      </c>
+      <c r="C303">
+        <v>2.2</v>
+      </c>
+      <c r="D303">
+        <v>2.1</v>
+      </c>
+      <c r="E303" t="s">
+        <v>20</v>
+      </c>
+      <c r="F303">
+        <v>3</v>
+      </c>
+      <c r="G303" t="s">
+        <v>32</v>
+      </c>
+      <c r="H303" t="s">
+        <v>25</v>
+      </c>
+      <c r="I303" t="s">
+        <v>33</v>
+      </c>
+      <c r="J303" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
+      <c r="A304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304">
+        <v>4</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>16</v>
+      </c>
+      <c r="F304">
+        <v>4</v>
+      </c>
+      <c r="G304" t="s">
+        <v>22</v>
+      </c>
+      <c r="H304" t="s">
+        <v>31</v>
+      </c>
+      <c r="I304" t="s">
+        <v>33</v>
+      </c>
+      <c r="J304" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305">
+        <v>7</v>
+      </c>
+      <c r="D305">
+        <v>4</v>
+      </c>
+      <c r="E305" t="s">
+        <v>16</v>
+      </c>
+      <c r="F305">
+        <v>4</v>
+      </c>
+      <c r="G305" t="s">
+        <v>30</v>
+      </c>
+      <c r="H305" t="s">
+        <v>22</v>
+      </c>
+      <c r="I305" t="s">
+        <v>33</v>
+      </c>
+      <c r="J305" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
+      <c r="A306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306" t="s">
+        <v>12</v>
+      </c>
+      <c r="C306">
+        <v>8.1</v>
+      </c>
+      <c r="D306">
+        <v>7</v>
+      </c>
+      <c r="E306" t="s">
+        <v>16</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+      <c r="G306" t="s">
+        <v>26</v>
+      </c>
+      <c r="H306" t="s">
+        <v>30</v>
+      </c>
+      <c r="I306" t="s">
+        <v>33</v>
+      </c>
+      <c r="J306" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
+      <c r="A307" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D307">
+        <v>8.1</v>
+      </c>
+      <c r="E307" t="s">
+        <v>16</v>
+      </c>
+      <c r="F307">
+        <v>4</v>
+      </c>
+      <c r="G307" t="s">
+        <v>27</v>
+      </c>
+      <c r="H307" t="s">
+        <v>26</v>
+      </c>
+      <c r="I307" t="s">
+        <v>33</v>
+      </c>
+      <c r="J307" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
+      <c r="A308" t="s">
+        <v>11</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D308">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E308" t="s">
+        <v>19</v>
+      </c>
+      <c r="F308">
+        <v>4</v>
+      </c>
+      <c r="G308" t="s">
+        <v>27</v>
+      </c>
+      <c r="H308" t="s">
+        <v>27</v>
+      </c>
+      <c r="I308" t="s">
+        <v>33</v>
+      </c>
+      <c r="J308" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
+      <c r="A309" t="s">
+        <v>10</v>
+      </c>
+      <c r="B309" t="s">
+        <v>14</v>
+      </c>
+      <c r="C309">
+        <v>6</v>
+      </c>
+      <c r="D309">
+        <v>5</v>
+      </c>
+      <c r="E309" t="s">
+        <v>16</v>
+      </c>
+      <c r="F309">
+        <v>5</v>
+      </c>
+      <c r="G309" t="s">
+        <v>24</v>
+      </c>
+      <c r="H309" t="s">
+        <v>28</v>
+      </c>
+      <c r="I309" t="s">
+        <v>33</v>
+      </c>
+      <c r="J309" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
+      <c r="A310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B310" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310">
+        <v>3</v>
+      </c>
+      <c r="D310">
+        <v>6</v>
+      </c>
+      <c r="E310" t="s">
+        <v>16</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+      <c r="G310" t="s">
+        <v>23</v>
+      </c>
+      <c r="H310" t="s">
+        <v>24</v>
+      </c>
+      <c r="I310" t="s">
+        <v>33</v>
+      </c>
+      <c r="J310" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
+      <c r="A311" t="s">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>14</v>
+      </c>
+      <c r="C311">
+        <v>2.2</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311" t="s">
+        <v>16</v>
+      </c>
+      <c r="F311">
+        <v>5</v>
+      </c>
+      <c r="G311" t="s">
+        <v>32</v>
+      </c>
+      <c r="H311" t="s">
+        <v>23</v>
+      </c>
+      <c r="I311" t="s">
+        <v>33</v>
+      </c>
+      <c r="J311" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312" t="s">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>14</v>
+      </c>
+      <c r="C312">
+        <v>2.2</v>
+      </c>
+      <c r="D312">
+        <v>2.2</v>
+      </c>
+      <c r="E312" t="s">
+        <v>17</v>
+      </c>
+      <c r="F312">
+        <v>5</v>
+      </c>
+      <c r="G312" t="s">
+        <v>32</v>
+      </c>
+      <c r="H312" t="s">
+        <v>32</v>
+      </c>
+      <c r="I312" t="s">
+        <v>33</v>
+      </c>
+      <c r="J312" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" t="s">
+        <v>15</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>4</v>
+      </c>
+      <c r="E313" t="s">
+        <v>16</v>
+      </c>
+      <c r="F313">
+        <v>6</v>
+      </c>
+      <c r="G313" t="s">
+        <v>28</v>
+      </c>
+      <c r="H313" t="s">
+        <v>22</v>
+      </c>
+      <c r="I313" t="s">
+        <v>33</v>
+      </c>
+      <c r="J313" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
+      <c r="A314" t="s">
+        <v>10</v>
+      </c>
+      <c r="B314" t="s">
+        <v>15</v>
+      </c>
+      <c r="C314">
+        <v>2.1</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314" t="s">
+        <v>16</v>
+      </c>
+      <c r="F314">
+        <v>6</v>
+      </c>
+      <c r="G314" t="s">
+        <v>25</v>
+      </c>
+      <c r="H314" t="s">
+        <v>28</v>
+      </c>
+      <c r="I314" t="s">
+        <v>33</v>
+      </c>
+      <c r="J314" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
+      <c r="A315" t="s">
+        <v>10</v>
+      </c>
+      <c r="B315" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315">
+        <v>2.2</v>
+      </c>
+      <c r="D315">
+        <v>2.1</v>
+      </c>
+      <c r="E315" t="s">
+        <v>16</v>
+      </c>
+      <c r="F315">
+        <v>6</v>
+      </c>
+      <c r="G315" t="s">
+        <v>32</v>
+      </c>
+      <c r="H315" t="s">
+        <v>25</v>
+      </c>
+      <c r="I315" t="s">
+        <v>33</v>
+      </c>
+      <c r="J315" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
+      <c r="A316" t="s">
+        <v>10</v>
+      </c>
+      <c r="B316" t="s">
+        <v>15</v>
+      </c>
+      <c r="C316">
+        <v>2.2</v>
+      </c>
+      <c r="D316">
+        <v>2.2</v>
+      </c>
+      <c r="E316" t="s">
+        <v>20</v>
+      </c>
+      <c r="F316">
+        <v>6</v>
+      </c>
+      <c r="G316" t="s">
+        <v>32</v>
+      </c>
+      <c r="H316" t="s">
+        <v>32</v>
+      </c>
+      <c r="I316" t="s">
+        <v>33</v>
+      </c>
+      <c r="J316" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10">
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317">
+        <v>2.2</v>
+      </c>
+      <c r="D317">
+        <v>2.1</v>
+      </c>
+      <c r="E317" t="s">
+        <v>19</v>
+      </c>
+      <c r="F317">
+        <v>7</v>
+      </c>
+      <c r="G317" t="s">
+        <v>32</v>
+      </c>
+      <c r="H317" t="s">
+        <v>25</v>
+      </c>
+      <c r="I317" t="s">
+        <v>33</v>
+      </c>
+      <c r="J317" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
+      <c r="A318" t="s">
+        <v>11</v>
+      </c>
+      <c r="B318" t="s">
+        <v>13</v>
+      </c>
+      <c r="C318">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D318">
+        <v>9</v>
+      </c>
+      <c r="E318" t="s">
+        <v>16</v>
+      </c>
+      <c r="F318">
+        <v>8</v>
+      </c>
+      <c r="G318" t="s">
+        <v>27</v>
+      </c>
+      <c r="H318" t="s">
+        <v>29</v>
+      </c>
+      <c r="I318" t="s">
+        <v>33</v>
+      </c>
+      <c r="J318" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
+      <c r="A319" t="s">
+        <v>11</v>
+      </c>
+      <c r="B319" t="s">
+        <v>13</v>
+      </c>
+      <c r="C319">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D319">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E319" t="s">
+        <v>20</v>
+      </c>
+      <c r="F319">
+        <v>8</v>
+      </c>
+      <c r="G319" t="s">
+        <v>27</v>
+      </c>
+      <c r="H319" t="s">
+        <v>27</v>
+      </c>
+      <c r="I319" t="s">
+        <v>33</v>
+      </c>
+      <c r="J319" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
+      <c r="A320" t="s">
+        <v>11</v>
+      </c>
+      <c r="B320" t="s">
+        <v>14</v>
+      </c>
+      <c r="C320">
+        <v>2.1</v>
+      </c>
+      <c r="D320">
+        <v>2.2</v>
+      </c>
+      <c r="E320" t="s">
+        <v>16</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="G320" t="s">
+        <v>25</v>
+      </c>
+      <c r="H320" t="s">
+        <v>32</v>
+      </c>
+      <c r="I320" t="s">
+        <v>33</v>
+      </c>
+      <c r="J320" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
+      <c r="A321" t="s">
+        <v>11</v>
+      </c>
+      <c r="B321" t="s">
+        <v>14</v>
+      </c>
+      <c r="C321">
+        <v>3</v>
+      </c>
+      <c r="D321">
+        <v>2.1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>16</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321" t="s">
+        <v>23</v>
+      </c>
+      <c r="H321" t="s">
+        <v>25</v>
+      </c>
+      <c r="I321" t="s">
+        <v>33</v>
+      </c>
+      <c r="J321" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
+      <c r="A322" t="s">
+        <v>11</v>
+      </c>
+      <c r="B322" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322">
+        <v>8.1</v>
+      </c>
+      <c r="D322">
+        <v>3</v>
+      </c>
+      <c r="E322" t="s">
+        <v>16</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322" t="s">
+        <v>26</v>
+      </c>
+      <c r="H322" t="s">
+        <v>23</v>
+      </c>
+      <c r="I322" t="s">
+        <v>33</v>
+      </c>
+      <c r="J322" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
+      <c r="A323" t="s">
+        <v>11</v>
+      </c>
+      <c r="B323" t="s">
+        <v>14</v>
+      </c>
+      <c r="C323">
+        <v>9</v>
+      </c>
+      <c r="D323">
+        <v>8.1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>16</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323" t="s">
+        <v>29</v>
+      </c>
+      <c r="H323" t="s">
+        <v>26</v>
+      </c>
+      <c r="I323" t="s">
+        <v>33</v>
+      </c>
+      <c r="J323" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="A324" t="s">
+        <v>11</v>
+      </c>
+      <c r="B324" t="s">
+        <v>14</v>
+      </c>
+      <c r="C324">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D324">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>16</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324" t="s">
+        <v>27</v>
+      </c>
+      <c r="H324" t="s">
+        <v>29</v>
+      </c>
+      <c r="I324" t="s">
+        <v>33</v>
+      </c>
+      <c r="J324" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
+      <c r="A325" t="s">
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
+        <v>14</v>
+      </c>
+      <c r="C325">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D325">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E325" t="s">
+        <v>21</v>
+      </c>
+      <c r="F325">
+        <v>1</v>
+      </c>
+      <c r="G325" t="s">
+        <v>27</v>
+      </c>
+      <c r="H325" t="s">
+        <v>27</v>
+      </c>
+      <c r="I325" t="s">
+        <v>33</v>
+      </c>
+      <c r="J325" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
+      <c r="A326" t="s">
+        <v>11</v>
+      </c>
+      <c r="B326" t="s">
+        <v>13</v>
+      </c>
+      <c r="C326">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+      <c r="E326" t="s">
+        <v>16</v>
+      </c>
+      <c r="F326">
+        <v>2</v>
+      </c>
+      <c r="G326" t="s">
+        <v>27</v>
+      </c>
+      <c r="H326" t="s">
+        <v>28</v>
+      </c>
+      <c r="I326" t="s">
+        <v>33</v>
+      </c>
+      <c r="J326" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
+      <c r="A327" t="s">
+        <v>11</v>
+      </c>
+      <c r="B327" t="s">
+        <v>13</v>
+      </c>
+      <c r="C327">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D327">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E327" t="s">
+        <v>19</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+      <c r="G327" t="s">
+        <v>27</v>
+      </c>
+      <c r="H327" t="s">
+        <v>27</v>
+      </c>
+      <c r="I327" t="s">
+        <v>33</v>
+      </c>
+      <c r="J327" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
+      <c r="A328" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
+        <v>13</v>
+      </c>
+      <c r="C328">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D328">
+        <v>7</v>
+      </c>
+      <c r="E328" t="s">
+        <v>16</v>
+      </c>
+      <c r="F328">
+        <v>3</v>
+      </c>
+      <c r="G328" t="s">
+        <v>27</v>
+      </c>
+      <c r="H328" t="s">
+        <v>30</v>
+      </c>
+      <c r="I328" t="s">
+        <v>33</v>
+      </c>
+      <c r="J328" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
+      <c r="A329" t="s">
+        <v>11</v>
+      </c>
+      <c r="B329" t="s">
+        <v>13</v>
+      </c>
+      <c r="C329">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D329">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E329" t="s">
+        <v>19</v>
+      </c>
+      <c r="F329">
+        <v>3</v>
+      </c>
+      <c r="G329" t="s">
+        <v>27</v>
+      </c>
+      <c r="H329" t="s">
+        <v>27</v>
+      </c>
+      <c r="I329" t="s">
+        <v>33</v>
+      </c>
+      <c r="J329" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
+      <c r="A330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" t="s">
+        <v>13</v>
+      </c>
+      <c r="C330">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D330">
+        <v>8.1</v>
+      </c>
+      <c r="E330" t="s">
+        <v>19</v>
+      </c>
+      <c r="F330">
+        <v>4</v>
+      </c>
+      <c r="G330" t="s">
+        <v>27</v>
+      </c>
+      <c r="H330" t="s">
+        <v>26</v>
+      </c>
+      <c r="I330" t="s">
+        <v>33</v>
+      </c>
+      <c r="J330" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" t="s">
+        <v>15</v>
+      </c>
+      <c r="C331">
+        <v>2.1</v>
+      </c>
+      <c r="D331">
+        <v>4</v>
+      </c>
+      <c r="E331" t="s">
+        <v>16</v>
+      </c>
+      <c r="F331">
+        <v>5</v>
+      </c>
+      <c r="G331" t="s">
+        <v>25</v>
+      </c>
+      <c r="H331" t="s">
+        <v>22</v>
+      </c>
+      <c r="I331" t="s">
+        <v>33</v>
+      </c>
+      <c r="J331" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
+      <c r="A332" t="s">
+        <v>10</v>
+      </c>
+      <c r="B332" t="s">
+        <v>15</v>
+      </c>
+      <c r="C332">
+        <v>2.2</v>
+      </c>
+      <c r="D332">
+        <v>2.1</v>
+      </c>
+      <c r="E332" t="s">
+        <v>16</v>
+      </c>
+      <c r="F332">
+        <v>5</v>
+      </c>
+      <c r="G332" t="s">
+        <v>32</v>
+      </c>
+      <c r="H332" t="s">
+        <v>25</v>
+      </c>
+      <c r="I332" t="s">
+        <v>33</v>
+      </c>
+      <c r="J332" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
+      <c r="A333" t="s">
+        <v>10</v>
+      </c>
+      <c r="B333" t="s">
+        <v>15</v>
+      </c>
+      <c r="C333">
+        <v>2.2</v>
+      </c>
+      <c r="D333">
+        <v>2.2</v>
+      </c>
+      <c r="E333" t="s">
+        <v>20</v>
+      </c>
+      <c r="F333">
+        <v>5</v>
+      </c>
+      <c r="G333" t="s">
+        <v>32</v>
+      </c>
+      <c r="H333" t="s">
+        <v>32</v>
+      </c>
+      <c r="I333" t="s">
+        <v>33</v>
+      </c>
+      <c r="J333" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
+      <c r="A334" t="s">
+        <v>11</v>
+      </c>
+      <c r="B334" t="s">
+        <v>13</v>
+      </c>
+      <c r="C334">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D334">
+        <v>6</v>
+      </c>
+      <c r="E334" t="s">
+        <v>16</v>
+      </c>
+      <c r="F334">
+        <v>6</v>
+      </c>
+      <c r="G334" t="s">
+        <v>27</v>
+      </c>
+      <c r="H334" t="s">
+        <v>24</v>
+      </c>
+      <c r="I334" t="s">
+        <v>33</v>
+      </c>
+      <c r="J334" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
+      <c r="A335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B335" t="s">
+        <v>13</v>
+      </c>
+      <c r="C335">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D335">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E335" t="s">
+        <v>17</v>
+      </c>
+      <c r="F335">
+        <v>6</v>
+      </c>
+      <c r="G335" t="s">
+        <v>27</v>
+      </c>
+      <c r="H335" t="s">
+        <v>27</v>
+      </c>
+      <c r="I335" t="s">
+        <v>33</v>
+      </c>
+      <c r="J335" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
+      <c r="A336" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" t="s">
+        <v>13</v>
+      </c>
+      <c r="C336">
+        <v>2.2</v>
+      </c>
+      <c r="D336">
+        <v>3</v>
+      </c>
+      <c r="E336" t="s">
+        <v>16</v>
+      </c>
+      <c r="F336">
+        <v>7</v>
+      </c>
+      <c r="G336" t="s">
+        <v>32</v>
+      </c>
+      <c r="H336" t="s">
+        <v>23</v>
+      </c>
+      <c r="I336" t="s">
+        <v>33</v>
+      </c>
+      <c r="J336" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>13</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337">
+        <v>2.2</v>
+      </c>
+      <c r="E337" t="s">
+        <v>16</v>
+      </c>
+      <c r="F337">
+        <v>7</v>
+      </c>
+      <c r="G337" t="s">
+        <v>31</v>
+      </c>
+      <c r="H337" t="s">
+        <v>32</v>
+      </c>
+      <c r="I337" t="s">
+        <v>33</v>
+      </c>
+      <c r="J337" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10">
+      <c r="A338" t="s">
+        <v>10</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338">
+        <v>2.2</v>
+      </c>
+      <c r="D338">
+        <v>1</v>
+      </c>
+      <c r="E338" t="s">
+        <v>16</v>
+      </c>
+      <c r="F338">
+        <v>7</v>
+      </c>
+      <c r="G338" t="s">
+        <v>32</v>
+      </c>
+      <c r="H338" t="s">
+        <v>31</v>
+      </c>
+      <c r="I338" t="s">
+        <v>33</v>
+      </c>
+      <c r="J338" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10">
+      <c r="A339" t="s">
+        <v>10</v>
+      </c>
+      <c r="B339" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339">
+        <v>2.1</v>
+      </c>
+      <c r="D339">
+        <v>2.2</v>
+      </c>
+      <c r="E339" t="s">
+        <v>16</v>
+      </c>
+      <c r="F339">
+        <v>7</v>
+      </c>
+      <c r="G339" t="s">
+        <v>25</v>
+      </c>
+      <c r="H339" t="s">
+        <v>32</v>
+      </c>
+      <c r="I339" t="s">
+        <v>33</v>
+      </c>
+      <c r="J339" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10">
+      <c r="A340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B340" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340">
+        <v>2.2</v>
+      </c>
+      <c r="D340">
+        <v>2.1</v>
+      </c>
+      <c r="E340" t="s">
+        <v>19</v>
+      </c>
+      <c r="F340">
+        <v>7</v>
+      </c>
+      <c r="G340" t="s">
+        <v>32</v>
+      </c>
+      <c r="H340" t="s">
+        <v>25</v>
+      </c>
+      <c r="I340" t="s">
+        <v>33</v>
+      </c>
+      <c r="J340" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
+      <c r="A341" t="s">
+        <v>11</v>
+      </c>
+      <c r="B341" t="s">
+        <v>14</v>
+      </c>
+      <c r="C341">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D341">
+        <v>8.1</v>
+      </c>
+      <c r="E341" t="s">
+        <v>16</v>
+      </c>
+      <c r="F341">
+        <v>8</v>
+      </c>
+      <c r="G341" t="s">
+        <v>27</v>
+      </c>
+      <c r="H341" t="s">
+        <v>26</v>
+      </c>
+      <c r="I341" t="s">
+        <v>33</v>
+      </c>
+      <c r="J341" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10">
+      <c r="A342" t="s">
+        <v>11</v>
+      </c>
+      <c r="B342" t="s">
+        <v>14</v>
+      </c>
+      <c r="C342">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D342">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E342" t="s">
+        <v>19</v>
+      </c>
+      <c r="F342">
+        <v>8</v>
+      </c>
+      <c r="G342" t="s">
+        <v>27</v>
+      </c>
+      <c r="H342" t="s">
+        <v>27</v>
+      </c>
+      <c r="I342" t="s">
+        <v>33</v>
+      </c>
+      <c r="J342" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10">
+      <c r="A343" t="s">
+        <v>11</v>
+      </c>
+      <c r="B343" t="s">
+        <v>13</v>
+      </c>
+      <c r="C343">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D343">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>16</v>
+      </c>
+      <c r="F343">
+        <v>9</v>
+      </c>
+      <c r="G343" t="s">
+        <v>27</v>
+      </c>
+      <c r="H343" t="s">
+        <v>29</v>
+      </c>
+      <c r="I343" t="s">
+        <v>33</v>
+      </c>
+      <c r="J343" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
+      <c r="A344" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" t="s">
+        <v>13</v>
+      </c>
+      <c r="C344">
+        <v>8.1</v>
+      </c>
+      <c r="D344">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E344" t="s">
+        <v>16</v>
+      </c>
+      <c r="F344">
+        <v>9</v>
+      </c>
+      <c r="G344" t="s">
+        <v>26</v>
+      </c>
+      <c r="H344" t="s">
+        <v>27</v>
+      </c>
+      <c r="I344" t="s">
+        <v>33</v>
+      </c>
+      <c r="J344" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10">
+      <c r="A345" t="s">
+        <v>11</v>
+      </c>
+      <c r="B345" t="s">
+        <v>13</v>
+      </c>
+      <c r="C345">
+        <v>7</v>
+      </c>
+      <c r="D345">
+        <v>8.1</v>
+      </c>
+      <c r="E345" t="s">
+        <v>16</v>
+      </c>
+      <c r="F345">
+        <v>9</v>
+      </c>
+      <c r="G345" t="s">
+        <v>30</v>
+      </c>
+      <c r="H345" t="s">
+        <v>26</v>
+      </c>
+      <c r="I345" t="s">
+        <v>33</v>
+      </c>
+      <c r="J345" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10">
+      <c r="A346" t="s">
+        <v>11</v>
+      </c>
+      <c r="B346" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D346">
+        <v>7</v>
+      </c>
+      <c r="E346" t="s">
+        <v>16</v>
+      </c>
+      <c r="F346">
+        <v>9</v>
+      </c>
+      <c r="G346" t="s">
+        <v>27</v>
+      </c>
+      <c r="H346" t="s">
+        <v>30</v>
+      </c>
+      <c r="I346" t="s">
+        <v>33</v>
+      </c>
+      <c r="J346" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
+      <c r="A347" t="s">
+        <v>11</v>
+      </c>
+      <c r="B347" t="s">
+        <v>13</v>
+      </c>
+      <c r="C347">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D347">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E347" t="s">
+        <v>19</v>
+      </c>
+      <c r="F347">
+        <v>9</v>
+      </c>
+      <c r="G347" t="s">
+        <v>27</v>
+      </c>
+      <c r="H347" t="s">
+        <v>27</v>
+      </c>
+      <c r="I347" t="s">
+        <v>33</v>
+      </c>
+      <c r="J347" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>14</v>
+      </c>
+      <c r="C348">
+        <v>9</v>
+      </c>
+      <c r="D348">
+        <v>6</v>
+      </c>
+      <c r="E348" t="s">
+        <v>16</v>
+      </c>
+      <c r="F348">
+        <v>10</v>
+      </c>
+      <c r="G348" t="s">
+        <v>29</v>
+      </c>
+      <c r="H348" t="s">
+        <v>24</v>
+      </c>
+      <c r="I348" t="s">
+        <v>33</v>
+      </c>
+      <c r="J348" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10">
+      <c r="A349" t="s">
+        <v>11</v>
+      </c>
+      <c r="B349" t="s">
+        <v>14</v>
+      </c>
+      <c r="C349">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D349">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>16</v>
+      </c>
+      <c r="F349">
+        <v>10</v>
+      </c>
+      <c r="G349" t="s">
+        <v>27</v>
+      </c>
+      <c r="H349" t="s">
+        <v>29</v>
+      </c>
+      <c r="I349" t="s">
+        <v>33</v>
+      </c>
+      <c r="J349" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
+      <c r="A350" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" t="s">
+        <v>14</v>
+      </c>
+      <c r="C350">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D350">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E350" t="s">
+        <v>19</v>
+      </c>
+      <c r="F350">
+        <v>10</v>
+      </c>
+      <c r="G350" t="s">
+        <v>27</v>
+      </c>
+      <c r="H350" t="s">
+        <v>27</v>
+      </c>
+      <c r="I350" t="s">
+        <v>33</v>
+      </c>
+      <c r="J350" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" t="s">
+        <v>13</v>
+      </c>
+      <c r="C351">
+        <v>2.2</v>
+      </c>
+      <c r="D351">
+        <v>3</v>
+      </c>
+      <c r="E351" t="s">
+        <v>16</v>
+      </c>
+      <c r="F351">
+        <v>11</v>
+      </c>
+      <c r="G351" t="s">
+        <v>32</v>
+      </c>
+      <c r="H351" t="s">
+        <v>23</v>
+      </c>
+      <c r="I351" t="s">
+        <v>33</v>
+      </c>
+      <c r="J351" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10">
+      <c r="A352" t="s">
+        <v>10</v>
+      </c>
+      <c r="B352" t="s">
+        <v>13</v>
+      </c>
+      <c r="C352">
+        <v>2.2</v>
+      </c>
+      <c r="D352">
+        <v>2.2</v>
+      </c>
+      <c r="E352" t="s">
+        <v>20</v>
+      </c>
+      <c r="F352">
+        <v>11</v>
+      </c>
+      <c r="G352" t="s">
+        <v>32</v>
+      </c>
+      <c r="H352" t="s">
+        <v>32</v>
+      </c>
+      <c r="I352" t="s">
+        <v>33</v>
+      </c>
+      <c r="J352" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10">
+      <c r="A353" t="s">
+        <v>11</v>
+      </c>
+      <c r="B353" t="s">
+        <v>14</v>
+      </c>
+      <c r="C353">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="D353">
+        <v>2.2</v>
+      </c>
+      <c r="E353" t="s">
+        <v>20</v>
+      </c>
+      <c r="F353">
+        <v>12</v>
+      </c>
+      <c r="G353" t="s">
+        <v>27</v>
+      </c>
+      <c r="H353" t="s">
+        <v>32</v>
+      </c>
+      <c r="I353" t="s">
+        <v>33</v>
+      </c>
+      <c r="J353" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
